--- a/Summer2019-DataAnalysis/RawData/Zoop_sample_counting_template_2019.xlsx
+++ b/Summer2019-DataAnalysis/RawData/Zoop_sample_counting_template_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/zooplankton/Summer2019-DataAnalysis/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DACDE15-F7E9-DE4C-8132-C69C526B62D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB1FEA3-50A9-7743-888D-31F6DAAACD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16220" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="32">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -104,22 +104,34 @@
     <t>1 mL</t>
   </si>
   <si>
-    <t>P. sulcata</t>
-  </si>
-  <si>
-    <t>K. bostoniensis</t>
-  </si>
-  <si>
     <t>Ceriodaphnia</t>
   </si>
   <si>
     <t>Trichocerca</t>
   </si>
   <si>
-    <t>Conochiloides</t>
+    <t>Lepadella</t>
   </si>
   <si>
-    <t>B_pel_10Jul19_sunset_h3_rep2</t>
+    <t>B_pel_24Jul19_sunset_h3_rep3</t>
+  </si>
+  <si>
+    <t>Gastropus</t>
+  </si>
+  <si>
+    <t>Conochilus</t>
+  </si>
+  <si>
+    <t>Calanodia</t>
+  </si>
+  <si>
+    <t>Polyarthra</t>
+  </si>
+  <si>
+    <t>Monostyla</t>
+  </si>
+  <si>
+    <t>Lecane</t>
   </si>
 </sst>
 </file>
@@ -526,7 +538,7 @@
   <dimension ref="A1:I1267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H101"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1"/>
       <c r="G1" s="10"/>
@@ -554,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>43656</v>
+        <v>43670</v>
       </c>
       <c r="C2"/>
     </row>
@@ -563,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="C3"/>
       <c r="E3" t="s">
@@ -625,13 +637,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
@@ -639,12 +651,7 @@
       <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0.3</v>
-      </c>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -654,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
@@ -667,13 +674,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -682,21 +689,21 @@
         <v>1200</v>
       </c>
       <c r="F10" s="11">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G10" s="10">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -704,22 +711,18 @@
       <c r="E11" s="3">
         <v>1200</v>
       </c>
-      <c r="F11" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="8">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -727,18 +730,22 @@
       <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
+      <c r="F12" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -751,13 +758,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="8">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -765,18 +772,22 @@
       <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
+      <c r="F14" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -784,22 +795,18 @@
       <c r="E15" s="3">
         <v>1200</v>
       </c>
-      <c r="F15" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.3</v>
-      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
@@ -807,22 +814,18 @@
       <c r="E16" s="3">
         <v>1200</v>
       </c>
-      <c r="F16" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.6</v>
-      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="8">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
@@ -830,22 +833,18 @@
       <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.7</v>
-      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="8">
-        <v>2.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -853,18 +852,22 @@
       <c r="E18" s="3">
         <v>1200</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="8">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -872,18 +875,22 @@
       <c r="E19" s="3">
         <v>1200</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="8">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
@@ -891,18 +898,22 @@
       <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
@@ -911,10 +922,10 @@
         <v>1200</v>
       </c>
       <c r="F21" s="11">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G21" s="10">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -925,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
@@ -938,13 +949,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
@@ -961,13 +972,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="8">
-        <v>1.1000000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
@@ -975,22 +986,18 @@
       <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0.6</v>
-      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="8">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
@@ -998,18 +1005,22 @@
       <c r="E25" s="3">
         <v>1200</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="8">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
@@ -1018,22 +1029,18 @@
         <v>1200</v>
       </c>
       <c r="F26" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="8">
-        <v>6.5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1045,13 +1052,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="8">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
@@ -1059,18 +1066,22 @@
       <c r="E28" s="3">
         <v>1200</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="F28" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="8">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1082,7 +1093,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
@@ -1097,21 +1108,21 @@
         <v>1200</v>
       </c>
       <c r="F30" s="8">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G30" s="8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="8">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1123,16 +1134,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="8">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E32" s="3">
         <v>1200</v>
@@ -1141,12 +1152,12 @@
         <v>0.8</v>
       </c>
       <c r="G32" s="8">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>11</v>
@@ -1155,21 +1166,21 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E33" s="3">
         <v>1200</v>
       </c>
       <c r="F33" s="8">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G33" s="8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>11</v>
@@ -1178,7 +1189,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E34" s="3">
         <v>1200</v>
@@ -1192,58 +1203,50 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="8">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="F35" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="8">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E36" s="3">
         <v>1200</v>
       </c>
-      <c r="F36" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0.6</v>
-      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="8">
-        <v>6.6</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E37" s="3">
         <v>1200</v>
@@ -1253,16 +1256,12 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="8">
-        <v>5.5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E38" s="3">
         <v>1200</v>
@@ -1272,16 +1271,12 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="8">
-        <v>6.9</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E39" s="3">
         <v>1200</v>
@@ -1290,16 +1285,12 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="8">
-        <v>2</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E40" s="3">
         <v>1200</v>
@@ -1309,16 +1300,12 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="8">
-        <v>1.6</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E41" s="3">
         <v>1200</v>
@@ -1327,16 +1314,12 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="9">
-        <v>5.6</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E42" s="3">
         <v>1200</v>
@@ -1346,12 +1329,12 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E43" s="3">
         <v>1200</v>
@@ -1361,12 +1344,12 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
       <c r="D44" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E44" s="3">
         <v>1200</v>
@@ -1376,12 +1359,12 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E45" s="3">
         <v>1200</v>
@@ -1391,12 +1374,12 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E46" s="3">
         <v>1200</v>
@@ -1406,12 +1389,12 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E47" s="3">
         <v>1200</v>
@@ -1421,96 +1404,104 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="8">
-        <v>6.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F48" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E49" s="3">
         <v>1200</v>
       </c>
       <c r="F49" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G49" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="9">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E50" s="3">
         <v>1200</v>
       </c>
-      <c r="F50" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G50" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E51" s="3">
         <v>1200</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F51" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+      <c r="B52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D52" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E52" s="3">
         <v>1200</v>
@@ -1518,197 +1509,171 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="8">
-        <v>9.1999999999999993</v>
-      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E53" s="3">
         <v>1200</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="8">
-        <v>1.1000000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G54" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="8">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E55" s="3">
         <v>1200</v>
       </c>
       <c r="F55" s="8">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G55" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="9">
-        <v>3.3</v>
+      <c r="C56" s="8">
+        <v>0.9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E56" s="3">
         <v>1200</v>
       </c>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F56" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="9">
-        <v>5.6</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E57" s="3">
         <v>1200</v>
       </c>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="9">
-        <v>0.8</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="9">
-        <v>8.6999999999999993</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
       </c>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="9">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
       <c r="D61" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E61" s="3">
         <v>1200</v>
       </c>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="9">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E62" s="3">
         <v>1200</v>
@@ -1716,47 +1681,56 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="9">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E63" s="3">
         <v>1200</v>
       </c>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D64" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="3">
         <v>1200</v>
       </c>
-      <c r="F64" s="8"/>
+      <c r="F64" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="9">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>14</v>
@@ -1764,15 +1738,23 @@
       <c r="E65" s="3">
         <v>1200</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="F65" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G65" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
+      <c r="B66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="9">
+        <v>1.8</v>
+      </c>
       <c r="D66" s="3" t="s">
         <v>14</v>
       </c>
@@ -1783,12 +1765,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="9">
+        <v>1.9</v>
+      </c>
       <c r="D67" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67" s="3">
         <v>1200</v>
@@ -1799,10 +1785,14 @@
       <c r="A68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
+      <c r="B68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1.5</v>
+      </c>
       <c r="D68" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E68" s="3">
         <v>1200</v>
@@ -1811,73 +1801,81 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="9">
-        <v>1.1000000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E69" s="3">
         <v>1200</v>
       </c>
-      <c r="F69" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G69" s="8">
-        <v>0.6</v>
-      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="9">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E70" s="3">
         <v>1200</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="F70" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G70" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="9">
+        <v>0.9</v>
+      </c>
       <c r="D71" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71" s="3">
         <v>1200</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="F71" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G71" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="9">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E72" s="3">
         <v>1200</v>
@@ -1887,12 +1885,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="9">
+        <v>8.1</v>
+      </c>
       <c r="D73" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E73" s="3">
         <v>1200</v>
@@ -1902,16 +1904,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="9">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E74" s="3">
         <v>1200</v>
@@ -1920,16 +1922,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="9">
-        <v>8.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75" s="3">
         <v>1200</v>
@@ -1938,12 +1940,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1.5</v>
+      </c>
       <c r="D76" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E76" s="3">
         <v>1200</v>
@@ -1958,29 +1964,33 @@
         <v>11</v>
       </c>
       <c r="C77" s="9">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E77" s="3">
         <v>1200</v>
       </c>
       <c r="F77" s="8">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G77" s="8">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="9">
+        <v>3.2</v>
+      </c>
       <c r="D78" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E78" s="3">
         <v>1200</v>
@@ -1989,30 +1999,39 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="9">
-        <v>6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E79" s="3">
         <v>1200</v>
       </c>
-      <c r="F79" s="8"/>
+      <c r="F79" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="9">
+        <v>1.4</v>
+      </c>
       <c r="D80" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E80" s="3">
         <v>1200</v>
@@ -2027,7 +2046,7 @@
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
       <c r="D81" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E81" s="3">
         <v>1200</v>
@@ -2037,26 +2056,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="9">
+        <v>1.6</v>
+      </c>
       <c r="D82" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E82" s="3">
         <v>1200</v>
       </c>
-      <c r="F82" s="8"/>
+      <c r="F82" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G82" s="9">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="9">
+        <v>2.5</v>
+      </c>
       <c r="D83" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83" s="3">
         <v>1200</v>
@@ -2065,27 +2097,35 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="9">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D84" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84" s="3">
         <v>1200</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="F84" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G84" s="8">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E85" s="3">
         <v>1200</v>
@@ -2095,17 +2135,26 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="8">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D86" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E86" s="3">
         <v>1200</v>
       </c>
-      <c r="F86" s="8"/>
+      <c r="F86" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G86" s="9">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
@@ -2114,7 +2163,7 @@
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
       <c r="D87" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E87" s="3">
         <v>1200</v>
@@ -2123,12 +2172,12 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
       <c r="D88" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E88" s="3">
         <v>1200</v>
@@ -2138,12 +2187,12 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
       <c r="D89" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E89" s="3">
         <v>1200</v>
@@ -2152,12 +2201,12 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
       <c r="D90" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E90" s="3">
         <v>1200</v>
@@ -2166,12 +2215,12 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
       <c r="D91" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E91" s="3">
         <v>1200</v>
@@ -2181,12 +2230,12 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
       <c r="D92" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E92" s="3">
         <v>1200</v>
@@ -2195,12 +2244,12 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
       <c r="D93" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E93" s="3">
         <v>1200</v>
@@ -2209,12 +2258,12 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
       <c r="D94" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E94" s="3">
         <v>1200</v>
@@ -2224,12 +2273,12 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
       <c r="D95" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E95" s="3">
         <v>1200</v>
@@ -2239,12 +2288,12 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
       <c r="D96" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E96" s="3">
         <v>1200</v>
@@ -2254,12 +2303,12 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
       <c r="D97" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E97" s="3">
         <v>1200</v>
@@ -2269,12 +2318,12 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
       <c r="D98" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E98" s="3">
         <v>1200</v>
@@ -2285,10 +2334,14 @@
       <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="9"/>
+      <c r="B99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="9">
+        <v>5.7</v>
+      </c>
       <c r="D99" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E99" s="3">
         <v>1200</v>
@@ -2297,12 +2350,12 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
       <c r="D100" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E100" s="3">
         <v>1200</v>
@@ -2312,347 +2365,644 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
       <c r="D101" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E101" s="3">
         <v>1200</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
-      <c r="H101" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="A102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1200</v>
+      </c>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
+      <c r="A103" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1200</v>
+      </c>
       <c r="F103" s="8"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+      <c r="A104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1200</v>
+      </c>
       <c r="F104" s="8"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
+      <c r="A105" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F105" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G105" s="8">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
+      <c r="A106" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="D106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1200</v>
+      </c>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
+      <c r="A107" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="D107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="3">
+        <v>1200</v>
+      </c>
       <c r="F107" s="8"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="A108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="3">
+        <v>1200</v>
+      </c>
       <c r="F108" s="11"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="3"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
+      <c r="A109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1200</v>
+      </c>
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="8"/>
+      <c r="A110" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F110" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G110" s="9">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
+      <c r="A111" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B111" s="8"/>
       <c r="C111" s="10"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+      <c r="D111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1200</v>
+      </c>
       <c r="F111" s="11"/>
+      <c r="H111" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
+      <c r="A112" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B112" s="8"/>
       <c r="C112" s="10"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="D112" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1200</v>
+      </c>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
+      <c r="D113" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1200</v>
+      </c>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="3"/>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
+      <c r="D114" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1200</v>
+      </c>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
+      <c r="D115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1200</v>
+      </c>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B116" s="11"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
+      <c r="D116" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1200</v>
+      </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B117" s="11"/>
       <c r="C117" s="9"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
+      <c r="D117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1200</v>
+      </c>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+      <c r="D118" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1200</v>
+      </c>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="3"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1200</v>
+      </c>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="3"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1200</v>
+      </c>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="3"/>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="D121" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1200</v>
+      </c>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="8"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="3"/>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="9">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F122" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G122" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1200</v>
+      </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="3"/>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1200</v>
+      </c>
       <c r="F124" s="8"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="3"/>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
+      <c r="D125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1200</v>
+      </c>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="3"/>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1200</v>
+      </c>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
+      <c r="D127" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1200</v>
+      </c>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="3"/>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
+      <c r="D128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1200</v>
+      </c>
       <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="3"/>
+      <c r="A129" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B129" s="8"/>
       <c r="C129" s="9"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+      <c r="D129" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1200</v>
+      </c>
       <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="3"/>
+      <c r="A130" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1200</v>
+      </c>
       <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="3"/>
+      <c r="A131" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1200</v>
+      </c>
       <c r="F131" s="8"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="3"/>
+      <c r="A132" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
+      <c r="D132" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1200</v>
+      </c>
       <c r="F132" s="8"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="3"/>
+      <c r="A133" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1200</v>
+      </c>
       <c r="F133" s="8"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="3"/>
+      <c r="A134" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1200</v>
+      </c>
       <c r="F134" s="8"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
+      <c r="A135" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B135" s="8"/>
       <c r="C135" s="9"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
+      <c r="D135" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1200</v>
+      </c>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="3"/>
+      <c r="A136" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B136" s="8"/>
       <c r="C136" s="9"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
+      <c r="D136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1200</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="3"/>
+      <c r="A137" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B137" s="8"/>
       <c r="C137" s="9"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
+      <c r="D137" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1200</v>
+      </c>
       <c r="F137" s="8"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="3"/>
+      <c r="A138" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B138" s="8"/>
       <c r="C138" s="9"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
+      <c r="D138" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1200</v>
+      </c>
       <c r="F138" s="8"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="3"/>
+      <c r="A139" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B139" s="8"/>
       <c r="C139" s="9"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
+      <c r="D139" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1200</v>
+      </c>
       <c r="F139" s="8"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="3"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
+      <c r="A140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1200</v>
+      </c>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="3"/>
+      <c r="A141" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B141" s="8"/>
       <c r="C141" s="9"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1200</v>
+      </c>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
     </row>

--- a/Summer2019-DataAnalysis/RawData/Zoop_sample_counting_template_2019.xlsx
+++ b/Summer2019-DataAnalysis/RawData/Zoop_sample_counting_template_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/zooplankton/Summer2019-DataAnalysis/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB1FEA3-50A9-7743-888D-31F6DAAACD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D196A29-3F7F-034F-9B93-F1FE3A42AAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16220" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="27">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Cyc naup</t>
   </si>
   <si>
-    <t>Keratella</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -101,37 +98,25 @@
     <t>Exoskeleton</t>
   </si>
   <si>
-    <t>1 mL</t>
-  </si>
-  <si>
-    <t>Ceriodaphnia</t>
-  </si>
-  <si>
-    <t>Trichocerca</t>
-  </si>
-  <si>
-    <t>Lepadella</t>
-  </si>
-  <si>
-    <t>B_pel_24Jul19_sunset_h3_rep3</t>
-  </si>
-  <si>
     <t>Gastropus</t>
   </si>
   <si>
     <t>Conochilus</t>
   </si>
   <si>
-    <t>Calanodia</t>
-  </si>
-  <si>
     <t>Polyarthra</t>
   </si>
   <si>
-    <t>Monostyla</t>
+    <t>K. bostoniensis</t>
   </si>
   <si>
-    <t>Lecane</t>
+    <t>Conochiloides</t>
+  </si>
+  <si>
+    <t>3 mL</t>
+  </si>
+  <si>
+    <t>B14May20_11m</t>
   </si>
 </sst>
 </file>
@@ -538,7 +523,7 @@
   <dimension ref="A1:I1267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H7" sqref="H7:H235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1"/>
       <c r="G1" s="10"/>
@@ -566,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>43670</v>
+        <v>43965</v>
       </c>
       <c r="C2"/>
     </row>
@@ -575,11 +560,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44951</v>
+        <v>45079</v>
       </c>
       <c r="C3"/>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -608,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -625,98 +610,97 @@
         <v>11</v>
       </c>
       <c r="C7" s="8">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8">
-        <v>1.1000000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.6</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
+        <v>1000</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
@@ -728,550 +712,551 @@
         <v>9</v>
       </c>
       <c r="E12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.9</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="8">
-        <v>1.1000000000000001</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.6</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="8">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
+        <v>1000</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="8">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
+        <v>1000</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="8">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G18" s="10">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.6</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="8">
-        <v>1.1000000000000001</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0.6</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="8">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.9</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0.3</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="8">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
+        <v>1000</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="8">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F25" s="8">
         <v>0.5</v>
       </c>
-      <c r="G25" s="8">
-        <v>0.5</v>
+      <c r="G25" s="10">
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="8">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0.5</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.9</v>
+      </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+        <v>1000</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="8">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F28" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="G28" s="8">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="8">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F29" s="8"/>
+        <v>1000</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F30" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0.6</v>
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.4</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="8">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="8">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="8">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G32" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="8">
         <v>0.5</v>
       </c>
       <c r="G33" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="8">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.8</v>
+      </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2.4</v>
+      </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1.2</v>
+      </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1279,28 +1264,32 @@
         <v>9</v>
       </c>
       <c r="E39" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2.4</v>
+      </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1308,13 +1297,13 @@
         <v>9</v>
       </c>
       <c r="E41" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -1322,14 +1311,14 @@
         <v>9</v>
       </c>
       <c r="E42" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -1337,14 +1326,17 @@
         <v>9</v>
       </c>
       <c r="E43" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -1352,182 +1344,175 @@
         <v>9</v>
       </c>
       <c r="E44" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="9">
+        <v>7.9</v>
+      </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1.8</v>
+      </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1.4</v>
+      </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G48" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="8">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="8">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G49" s="8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="9">
-        <v>1.4</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="8">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G51" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="8">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="8">
+        <v>1.2</v>
+      </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
@@ -1535,94 +1520,90 @@
         <v>11</v>
       </c>
       <c r="C54" s="8">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F55" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G55" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="8">
-        <v>0.9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F56" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G56" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="9">
+        <v>5.7</v>
+      </c>
       <c r="D57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1</v>
+      </c>
       <c r="D58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
@@ -1630,122 +1611,121 @@
         <v>9</v>
       </c>
       <c r="E59" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="9">
+        <v>5.6</v>
+      </c>
       <c r="D60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="9">
+        <v>6.7</v>
+      </c>
       <c r="D61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="9">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G62" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="9">
-        <v>1.3</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="9">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E64" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F64" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="9">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E65" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F65" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G65" s="8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
@@ -1753,288 +1733,250 @@
         <v>11</v>
       </c>
       <c r="C66" s="9">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E66" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="9">
-        <v>1.9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E67" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F67" s="8"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="9">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E68" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="9">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E69" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="9">
-        <v>0.9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E70" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F70" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G70" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="9">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E71" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F71" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G71" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="9">
-        <v>1.5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E72" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="9">
-        <v>8.1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E73" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="9">
-        <v>3.8</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E74" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="9">
-        <v>2.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E75" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="9">
-        <v>1.5</v>
-      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E76" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="9">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E77" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F77" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G77" s="8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="9">
-        <v>3.2</v>
-      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
       <c r="D78" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E78" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="9">
-        <v>1.1000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F79" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G79" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="9">
-        <v>1.4</v>
-      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E80" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -2043,130 +1985,114 @@
       <c r="A81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="9"/>
+      <c r="B81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="9">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D81" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E81" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="9">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E82" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F82" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G82" s="9">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="9">
-        <v>2.5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
       <c r="D83" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E83" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="8"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="9">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
       <c r="D84" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E84" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F84" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G84" s="8">
-        <v>0.4</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E85" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="8">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
       <c r="D86" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E86" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F86" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G86" s="9">
-        <v>0.9</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F86" s="8"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="9">
+        <v>5.6</v>
+      </c>
       <c r="D87" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E87" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F87" s="8"/>
     </row>
@@ -2177,757 +2103,764 @@
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
       <c r="D88" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E88" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
       <c r="D89" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E89" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F89" s="8"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
       <c r="D90" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E90" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F90" s="8"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
       <c r="D91" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E91" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
       <c r="D92" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F92" s="8"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
       <c r="D93" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E93" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F93" s="8"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="9">
+        <v>5.7</v>
+      </c>
       <c r="D94" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E94" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
       <c r="D95" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E95" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
       <c r="D96" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="9">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="D97" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E97" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="9">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="D98" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E98" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B100" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="9">
-        <v>5.7</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F99" s="8"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="9"/>
+      <c r="C100" s="9">
+        <v>6</v>
+      </c>
       <c r="D100" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E100" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="9">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="D101" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E101" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="9">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E102" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="9">
+        <v>5.6</v>
+      </c>
       <c r="D103" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E103" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F103" s="8"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="9">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E104" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="9">
+        <v>1</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F105" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G105" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F105" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G105" s="8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="9"/>
       <c r="D106" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E106" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F106" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G106" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="9">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D107" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E107" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F107" s="8"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F107" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G107" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="10">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="C108" s="10"/>
       <c r="D108" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E108" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" s="10">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B109" s="8"/>
+      <c r="C109" s="10"/>
       <c r="D109" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E109" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="9">
-        <v>0.9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B110" s="8"/>
+      <c r="C110" s="9"/>
       <c r="D110" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E110" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F110" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="G110" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="10"/>
       <c r="D111" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E111" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F111" s="11"/>
-      <c r="H111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="10"/>
       <c r="D112" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E112" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
       <c r="D113" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E113" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B114" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B114" s="8"/>
       <c r="C114" s="9"/>
       <c r="D114" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E114" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B115" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B115" s="8"/>
       <c r="C115" s="9"/>
       <c r="D115" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E115" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B116" s="8"/>
       <c r="C116" s="9"/>
       <c r="D116" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E116" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B117" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B117" s="8"/>
       <c r="C117" s="9"/>
       <c r="D117" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E117" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
       <c r="D118" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E118" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="9">
-        <v>2.1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B119" s="8"/>
+      <c r="C119" s="9"/>
       <c r="D119" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E119" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="9">
-        <v>1.9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B120" s="8"/>
+      <c r="C120" s="9"/>
       <c r="D120" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E120" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
       <c r="D121" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E121" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="9">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B122" s="8"/>
+      <c r="C122" s="9"/>
       <c r="D122" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E122" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F122" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G122" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
       <c r="D123" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E123" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
       <c r="D124" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E124" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F124" s="8"/>
-      <c r="H124" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
       <c r="D125" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E125" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
       <c r="D126" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E126" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
       <c r="D127" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E127" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
       <c r="D128" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E128" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="9"/>
       <c r="D129" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E129" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
       <c r="D130" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E130" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
       <c r="D131" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E131" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F131" s="8"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
       <c r="D132" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E132" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F132" s="8"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
       <c r="D133" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E133" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F133" s="8"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
       <c r="D134" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E134" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F134" s="8"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="9"/>
       <c r="D135" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E135" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B136" s="8"/>
-      <c r="C136" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="9">
+        <v>1</v>
+      </c>
       <c r="D136" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E136" s="3">
-        <v>1200</v>
+        <v>1000</v>
+      </c>
+      <c r="F136" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="G136" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -2937,978 +2870,1800 @@
       <c r="B137" s="8"/>
       <c r="C137" s="9"/>
       <c r="D137" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E137" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F137" s="8"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" s="8"/>
-      <c r="C138" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="9">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D138" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E138" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F138" s="8"/>
+        <v>1000</v>
+      </c>
+      <c r="F138" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G138" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="9">
+        <v>6.9</v>
+      </c>
       <c r="D139" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E139" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F139" s="8"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C140" s="9">
-        <v>6.5</v>
+        <v>0.9</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E140" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
+        <v>1000</v>
+      </c>
+      <c r="F140" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G140" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="9">
+        <v>3</v>
+      </c>
       <c r="D141" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E141" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="3"/>
+      <c r="A142" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B142" s="8"/>
       <c r="C142" s="9"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
+      <c r="D142" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1000</v>
+      </c>
       <c r="F142" s="8"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
+      <c r="A143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1000</v>
+      </c>
       <c r="F143" s="8"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="3"/>
+      <c r="A144" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B144" s="8"/>
       <c r="C144" s="9"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
+      <c r="D144" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1000</v>
+      </c>
       <c r="F144" s="8"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="3"/>
+      <c r="A145" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B145" s="8"/>
       <c r="C145" s="9"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
+      <c r="D145" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1000</v>
+      </c>
       <c r="F145" s="8"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="3"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="8"/>
+      <c r="A146" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F146" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G146" s="9">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="3"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
+      <c r="A147" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F147" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G147" s="9">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="3"/>
+      <c r="A148" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B148" s="8"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+      <c r="D148" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="3">
+        <v>1000</v>
+      </c>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="3"/>
+      <c r="A149" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B149" s="8"/>
       <c r="C149" s="9"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
+      <c r="D149" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="3"/>
+      <c r="A150" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B150" s="8"/>
       <c r="C150" s="9"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
+      <c r="D150" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="3"/>
+      <c r="A151" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B151" s="8"/>
       <c r="C151" s="9"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
+      <c r="D151" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="3">
+        <v>1000</v>
+      </c>
       <c r="F151" s="8"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="3"/>
+      <c r="A152" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B152" s="8"/>
       <c r="C152" s="9"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="8"/>
+      <c r="D152" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G152"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="3"/>
+      <c r="A153" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B153" s="8"/>
       <c r="C153" s="9"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="8"/>
+      <c r="D153" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G153"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="3"/>
+      <c r="A154" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B154" s="8"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
+      <c r="D154" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="3"/>
+      <c r="A155" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B155" s="8"/>
       <c r="C155" s="9"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
+      <c r="D155" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1000</v>
+      </c>
       <c r="F155" s="8"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="3"/>
+      <c r="A156" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B156" s="8"/>
       <c r="C156" s="9"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
+      <c r="D156" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="3"/>
+      <c r="A157" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B157" s="8"/>
       <c r="C157" s="9"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
+      <c r="D157" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="3"/>
+      <c r="A158" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B158" s="8"/>
       <c r="C158" s="9"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
+      <c r="D158" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1000</v>
+      </c>
       <c r="F158" s="8"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="3"/>
+      <c r="A159" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B159" s="8"/>
       <c r="C159" s="9"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
+      <c r="D159" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1000</v>
+      </c>
       <c r="F159" s="8"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="3"/>
+      <c r="A160" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B160" s="8"/>
       <c r="C160" s="9"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
+      <c r="D160" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="3">
+        <v>1000</v>
+      </c>
       <c r="F160" s="8"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="3"/>
+      <c r="A161" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B161" s="8"/>
       <c r="C161" s="9"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
+      <c r="D161" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1000</v>
+      </c>
       <c r="F161" s="8"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="3"/>
+      <c r="A162" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B162" s="8"/>
       <c r="C162" s="9"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
+      <c r="D162" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1000</v>
+      </c>
       <c r="F162" s="8"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="3"/>
+      <c r="A163" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B163" s="8"/>
       <c r="C163" s="9"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
+      <c r="D163" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="3">
+        <v>1000</v>
+      </c>
       <c r="F163" s="8"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="3"/>
+      <c r="A164" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B164" s="8"/>
       <c r="C164" s="9"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
+      <c r="D164" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="3"/>
+      <c r="A165" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B165" s="8"/>
       <c r="C165" s="9"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
+      <c r="D165" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1000</v>
+      </c>
       <c r="F165" s="8"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="3"/>
+      <c r="A166" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B166" s="8"/>
       <c r="C166" s="9"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
+      <c r="D166" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="3"/>
+      <c r="A167" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B167" s="8"/>
       <c r="C167" s="9"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
+      <c r="D167" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1000</v>
+      </c>
       <c r="F167" s="8"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="3"/>
+      <c r="A168" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B168" s="8"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
+      <c r="D168" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="3"/>
+      <c r="A169" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B169" s="8"/>
       <c r="C169" s="9"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
+      <c r="D169" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="3"/>
+      <c r="A170" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B170" s="8"/>
       <c r="C170" s="9"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
+      <c r="D170" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="3"/>
+      <c r="A171" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B171" s="8"/>
       <c r="C171" s="9"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
+      <c r="D171" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1000</v>
+      </c>
       <c r="F171" s="8"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="3"/>
+      <c r="A172" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B172" s="8"/>
       <c r="C172" s="9"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
+      <c r="D172" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="3">
+        <v>1000</v>
+      </c>
       <c r="F172" s="8"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="3"/>
+      <c r="A173" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B173" s="8"/>
       <c r="C173" s="9"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
+      <c r="D173" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="3">
+        <v>1000</v>
+      </c>
       <c r="F173" s="8"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="3"/>
+      <c r="A174" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B174" s="8"/>
       <c r="C174" s="9"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
+      <c r="D174" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1000</v>
+      </c>
       <c r="F174" s="8"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="3"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
+      <c r="A175" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="3"/>
+      <c r="A176" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B176" s="8"/>
       <c r="C176" s="9"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="3"/>
+      <c r="D176" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B177" s="8"/>
       <c r="C177" s="9"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="3"/>
+      <c r="D177" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B178" s="8"/>
       <c r="C178" s="9"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="3"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="8"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="3"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="3"/>
+      <c r="D178" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F179" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G179" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B181" s="8"/>
       <c r="C181" s="9"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
+      <c r="D181" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="3">
+        <v>1000</v>
+      </c>
       <c r="F181" s="8"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="3"/>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B182" s="8"/>
       <c r="C182" s="9"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
+      <c r="D182" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1000</v>
+      </c>
       <c r="F182" s="8"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="3"/>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B183" s="8"/>
       <c r="C183" s="9"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
+      <c r="D183" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1000</v>
+      </c>
       <c r="F183" s="8"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="3"/>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B184" s="8"/>
       <c r="C184" s="9"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="3"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="3"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="3"/>
+      <c r="D184" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B187" s="8"/>
       <c r="C187" s="9"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
+      <c r="D187" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="3">
+        <v>1000</v>
+      </c>
       <c r="F187" s="8"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="3"/>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B188" s="8"/>
       <c r="C188" s="9"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="3"/>
+      <c r="D188" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B189" s="8"/>
       <c r="C189" s="9"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="3"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
+      <c r="D189" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1000</v>
+      </c>
       <c r="F190" s="8"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="3"/>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B191" s="8"/>
       <c r="C191" s="9"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
+      <c r="D191" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="3">
+        <v>1000</v>
+      </c>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="3"/>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B192" s="8"/>
       <c r="C192" s="9"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="3"/>
+      <c r="D192" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B193" s="8"/>
       <c r="C193" s="9"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="3"/>
+      <c r="D193" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B194" s="8"/>
       <c r="C194" s="9"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="3"/>
+      <c r="D194" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B195" s="8"/>
       <c r="C195" s="9"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
+      <c r="D195" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="3">
+        <v>1000</v>
+      </c>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="3"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="9"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="9">
+        <v>2</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" s="3">
+        <v>1000</v>
+      </c>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="3"/>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B197" s="8"/>
       <c r="C197" s="9"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="3"/>
+      <c r="D197" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B198" s="8"/>
       <c r="C198" s="9"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="3"/>
+      <c r="D198" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B199" s="8"/>
       <c r="C199" s="9"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="3"/>
+      <c r="D199" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B200" s="8"/>
       <c r="C200" s="9"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="3"/>
+      <c r="D200" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H200" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B201" s="8"/>
       <c r="C201" s="9"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
+      <c r="D201" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E201" s="3">
+        <v>1000</v>
+      </c>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="3"/>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B202" s="8"/>
       <c r="C202" s="9"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
+      <c r="D202" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1000</v>
+      </c>
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="3"/>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B203" s="8"/>
       <c r="C203" s="9"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
+      <c r="D203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" s="3">
+        <v>1000</v>
+      </c>
       <c r="F203" s="8"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="3"/>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B204" s="8"/>
       <c r="C204" s="9"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
+      <c r="D204" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" s="3">
+        <v>1000</v>
+      </c>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="3"/>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B205" s="8"/>
       <c r="C205" s="9"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
+      <c r="D205" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E205" s="3">
+        <v>1000</v>
+      </c>
       <c r="F205" s="8"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="3"/>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B206" s="8"/>
       <c r="C206" s="9"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="3"/>
+      <c r="D206" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B207" s="8"/>
       <c r="C207" s="9"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="3"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="9"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
+      <c r="D207" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E207" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E208" s="3">
+        <v>1000</v>
+      </c>
       <c r="F208" s="8"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="3"/>
+      <c r="A209" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B209" s="8"/>
       <c r="C209" s="9"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
+      <c r="D209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E209" s="3">
+        <v>1000</v>
+      </c>
       <c r="F209" s="8"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="3"/>
+      <c r="A210" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B210" s="8"/>
       <c r="C210" s="9"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
+      <c r="D210" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="3"/>
+      <c r="A211" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B211" s="8"/>
       <c r="C211" s="9"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
+      <c r="D211" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="3"/>
+      <c r="A212" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B212" s="8"/>
       <c r="C212" s="9"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E212" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="3"/>
+      <c r="A213" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B213" s="8"/>
       <c r="C213" s="9"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
+      <c r="D213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E213" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="3"/>
+      <c r="A214" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B214" s="8"/>
       <c r="C214" s="9"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
+      <c r="D214" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E214" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="3"/>
+      <c r="A215" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B215" s="8"/>
       <c r="C215" s="9"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
+      <c r="D215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="3"/>
+      <c r="A216" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B216" s="8"/>
       <c r="C216" s="9"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
+      <c r="D216" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="3"/>
+      <c r="A217" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B217" s="8"/>
       <c r="C217" s="9"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
+      <c r="D217" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="3"/>
+      <c r="A218" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B218" s="8"/>
       <c r="C218" s="9"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
+      <c r="D218" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E218" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="3"/>
+      <c r="A219" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B219" s="8"/>
       <c r="C219" s="9"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
+      <c r="D219" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E219" s="3">
+        <v>1000</v>
+      </c>
       <c r="F219" s="8"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="3"/>
+      <c r="A220" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B220" s="8"/>
       <c r="C220" s="9"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
+      <c r="D220" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E220" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="3"/>
+      <c r="A221" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B221" s="8"/>
       <c r="C221" s="9"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
+      <c r="D221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="3"/>
+      <c r="A222" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B222" s="8"/>
       <c r="C222" s="9"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
+      <c r="D222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="3"/>
+      <c r="A223" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B223" s="8"/>
       <c r="C223" s="9"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
+      <c r="D223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="3"/>
+      <c r="A224" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B224" s="8"/>
       <c r="C224" s="9"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
+      <c r="D224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224" s="3">
+        <v>1000</v>
+      </c>
       <c r="F224" s="8"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="3"/>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B225" s="8"/>
       <c r="C225" s="9"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
+      <c r="D225" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225" s="3">
+        <v>1000</v>
+      </c>
       <c r="F225" s="8"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="3"/>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B226" s="8"/>
       <c r="C226" s="9"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
+      <c r="D226" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" s="3">
+        <v>1000</v>
+      </c>
       <c r="F226" s="8"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="3"/>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B227" s="8"/>
       <c r="C227" s="9"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="3"/>
+      <c r="D227" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E227" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B228" s="8"/>
       <c r="C228" s="9"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="3"/>
+      <c r="D228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B229" s="8"/>
       <c r="C229" s="9"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
+      <c r="D229" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229" s="3">
+        <v>1000</v>
+      </c>
       <c r="F229" s="8"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="3"/>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B230" s="8"/>
       <c r="C230" s="9"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="3"/>
+      <c r="D230" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B231" s="8"/>
       <c r="C231" s="9"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="3"/>
+      <c r="D231" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E231" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H231" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="3"/>
+      <c r="D232" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="3"/>
+      <c r="D233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E233" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
+      <c r="D234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E234" s="3">
+        <v>1000</v>
+      </c>
       <c r="F234" s="8"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="3"/>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
+      <c r="D235" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E235" s="3">
+        <v>1000</v>
+      </c>
       <c r="F235" s="8"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="3"/>
+      <c r="H235" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B236" s="8"/>
       <c r="C236" s="9"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="3"/>
+      <c r="D236" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E236" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B237" s="8"/>
       <c r="C237" s="9"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="3"/>
+      <c r="D237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E237" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B238" s="8"/>
       <c r="C238" s="9"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="3"/>
+      <c r="D238" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E238" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B239" s="8"/>
       <c r="C239" s="9"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
+      <c r="D239" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E239" s="3">
+        <v>1000</v>
+      </c>
       <c r="F239" s="8"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="3"/>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B240" s="8"/>
       <c r="C240" s="9"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
+      <c r="D240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E240" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="3"/>
+      <c r="A241" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B241" s="8"/>
       <c r="C241" s="9"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
+      <c r="D241" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="3"/>
+      <c r="A242" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B242" s="8"/>
       <c r="C242" s="9"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
+      <c r="D242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242" s="3">
+        <v>1000</v>
+      </c>
       <c r="F242" s="8"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="3"/>
+      <c r="A243" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B243" s="8"/>
       <c r="C243" s="9"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
+      <c r="D243" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="3"/>
+      <c r="A244" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B244" s="8"/>
       <c r="C244" s="9"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
+      <c r="D244" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E244" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="3"/>
+      <c r="A245" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
+      <c r="D245" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E245" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="3"/>
+      <c r="A246" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
+      <c r="D246" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E246" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="3"/>
+      <c r="A247" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
+      <c r="D247" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E247" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="3"/>
+      <c r="A248" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
+      <c r="D248" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="3"/>
+      <c r="A249" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
+      <c r="D249" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E249" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="3"/>
+      <c r="A250" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
+      <c r="D250" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E250" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="3"/>
+      <c r="A251" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
+      <c r="D251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E251" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="3"/>
+      <c r="A252" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
+      <c r="D252" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E252" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="3"/>
+      <c r="A253" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
+      <c r="D253" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E253" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="3"/>
+      <c r="A254" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
+      <c r="D254" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="3"/>
+      <c r="A255" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
+      <c r="D255" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E255" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="3"/>
+      <c r="A256" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
+      <c r="D256" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E256" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="3"/>
+      <c r="A257" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
+      <c r="D257" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E257" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" s="3"/>
+      <c r="A258" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
+      <c r="D258" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E258" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="3"/>
+      <c r="A259" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
+      <c r="D259" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E259" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="3"/>
+      <c r="A260" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
+      <c r="D260" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E260" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="3"/>
+      <c r="A261" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
+      <c r="D261" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E261" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="3"/>
+      <c r="A262" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
+      <c r="D262" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E262" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="3"/>
+      <c r="A263" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
+      <c r="D263" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E263" s="3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
@@ -4565,6 +5320,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
+      <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
     </row>
